--- a/php/src/planilha.xlsx
+++ b/php/src/planilha.xlsx
@@ -79,14 +79,34 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:19">
       <c r="A2" s="0" t="inlineStr">
         <is>
           <t>137458</t>
         </is>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>Bryan Nickson Santana Pinto;</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>Gabriella Almeida  Moura;</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>Antonio Demuner;</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>Elson Santiago Alvarenga;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="0" t="inlineStr">
         <is>
           <t>137459</t>
@@ -102,8 +122,13 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>Tiago   Bueno de Moraes;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="0" t="inlineStr">
         <is>
           <t>137460</t>
@@ -119,8 +144,23 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>Tatiana Monaretto;</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Luiz Alberto Colnago;</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>Tiago   Bueno de Moraes;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="0" t="inlineStr">
         <is>
           <t>137464</t>
@@ -136,8 +176,88 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>Katelyn Downey;</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>Bing Wu;</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>Rudraksha Majumdar;</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>Daniel Lysak;</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>Rajshree Ghosh Biswas;</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>Maryam  Tabatabaei-Anaraki;</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>Amy Jenne;</t>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>Xiang You;</t>
+        </is>
+      </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t>Ronald Soong;</t>
+        </is>
+      </c>
+      <c r="M5" s="0" t="inlineStr">
+        <is>
+          <t>Daniel Lane;</t>
+        </is>
+      </c>
+      <c r="N5" s="0" t="inlineStr">
+        <is>
+          <t>Paul Helm;</t>
+        </is>
+      </c>
+      <c r="O5" s="0" t="inlineStr">
+        <is>
+          <t>Anna Codina;</t>
+        </is>
+      </c>
+      <c r="P5" s="0" t="inlineStr">
+        <is>
+          <t>Venita Decker;</t>
+        </is>
+      </c>
+      <c r="Q5" s="0" t="inlineStr">
+        <is>
+          <t>Falko Busse;</t>
+        </is>
+      </c>
+      <c r="R5" s="0" t="inlineStr">
+        <is>
+          <t>Myrna Simpson;</t>
+        </is>
+      </c>
+      <c r="S5" s="0" t="inlineStr">
+        <is>
+          <t>Andre Simpson;</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="0" t="inlineStr">
         <is>
           <t>137465</t>
@@ -153,8 +273,33 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>Banny S. B. Correia;</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>Pollyana Ferreira da Silva Vianna;</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>Caroline Ceribeli;</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>Luiz Alberto Colnago;</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>Daniel Cardoso;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="0" t="inlineStr">
         <is>
           <t>137466</t>
@@ -170,8 +315,23 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Enya Silva de Oliveira;</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>Luciano Morais Lião;</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>Gerlon de Almeida Ribeiro Oliveira;</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="0" t="inlineStr">
         <is>
           <t>137468</t>
@@ -187,8 +347,18 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>Amanda de Souza;</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>Rodrigo Verly;</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="0" t="inlineStr">
         <is>
           <t>137469</t>
@@ -204,8 +374,38 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>Daniel Lysak;</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>FLAVIO VINICIUS CRIZOSTOMO  KOCK;</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>Salvatore Mamone;</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>Stefan Glöggler;</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>Ronald Soong;</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>Andre Simpson;</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="0" t="inlineStr">
         <is>
           <t>137470</t>
@@ -221,8 +421,23 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Kennedy  Daniel  de Carvalho Santos;</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>Guilherme Dal Poggetto;</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>Cláudio Francisco Tormena;</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="0" t="inlineStr">
         <is>
           <t>137471</t>
@@ -238,8 +453,33 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Gustavo  Solcia;</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>Caio de Jesus Oliveira;</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>Rafael Henrique Ferreira da Silva;</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>Felipe Ferraz Derrico;</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>Fernando Fernandes Paiva;</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="0" t="inlineStr">
         <is>
           <t>137472</t>
@@ -255,8 +495,28 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Pedro Henrique Soares Cardoso;</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>Luciano Morais Lião;</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>Enya Silva de Oliveira;</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>Gerlon de Almeida Ribeiro Oliveira;</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="0" t="inlineStr">
         <is>
           <t>137473</t>
@@ -272,8 +532,23 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Marília Vilela Salvador;</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>Tiago  Venâncio;</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>Francisco Paulo dos Santos;</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="0" t="inlineStr">
         <is>
           <t>137474</t>
@@ -289,8 +564,53 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>Monica Bastawrous;</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Rajshree Ghosh Biswas;</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>Ronald Soong;</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>Sagar Wadhwa;</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>Neil Mackinnon;</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>Mazin Jouda;</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>Dario Mager;</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>Jan Korvink;</t>
+        </is>
+      </c>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>Andre Simpson;</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="0" t="inlineStr">
         <is>
           <t>137476</t>
@@ -306,8 +626,48 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Yara Rocha;</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>Victor U. Antunes;</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>Yan  Ladeira;</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>Adolfo Henrique de Moraes Silva;</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>Renan Pirolla;</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>Fábio Gozzo;</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>Anthony  Mittermaier;</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>Denize  C. Favaro;</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="0" t="inlineStr">
         <is>
           <t>137477</t>
@@ -323,8 +683,18 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Cassia  Chiari;</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>Cláudio Francisco Tormena;</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="0" t="inlineStr">
         <is>
           <t>137478</t>
@@ -340,8 +710,23 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Flávio Bueno dos Santos;</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>Marcus Cardoso;</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>Jose Rivera;</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="0" t="inlineStr">
         <is>
           <t>137479</t>
@@ -357,8 +742,38 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>Priscila  Rubim;</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>Mychelle Monteiro;</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>Filipe Soares Quirino da Silva;</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>Tanos Celmar Costa França;</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>Joyce Sobreiro Francisco Diz de Almeida;</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>Jochen  Junker;</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="0" t="inlineStr">
         <is>
           <t>137480</t>
@@ -374,8 +789,18 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>Laiza  Bruzadelle Loureiro;</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>Cláudio Francisco Tormena;</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="0" t="inlineStr">
         <is>
           <t>137486</t>
@@ -391,8 +816,28 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>Vinícius  Silva Pinto;</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>Christian Dias Gomides;</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>Igor Flores;</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>Luciano Morais Lião;</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="0" t="inlineStr">
         <is>
           <t>137487</t>
@@ -408,8 +853,28 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>José Dias de Souza Filho;</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>Jacqueline Souza;</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>Marta de Lana;</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>Gabriela Roberta Ramos Fernandes;</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="0" t="inlineStr">
         <is>
           <t>137555</t>
@@ -425,8 +890,33 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>Beatriz Rosa  Penna;</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>Thamires Moreira;</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>Danielle Maria  Perpétua de Oliveira Santos;</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>Cristiane Dinis Ano Bom;</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>Ana Paula Valente;</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="0" t="inlineStr">
         <is>
           <t>137556</t>
@@ -442,8 +932,43 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>Julie Lopes;</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>Beatriz Rosa  Penna;</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>Ana Paula Valente;</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>Leonardo  Bartkevihi;</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>Paulo Antônio de Souza Mourão;</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>Francisco  Felipe  Bezerra;</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>Adriane Regina Todeschini;</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="0" t="inlineStr">
         <is>
           <t>139165</t>
@@ -459,8 +984,28 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>Elton Tadeu Montrazi;</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>Tatiana Monaretto;</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>Luiz Alberto Colnago;</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>Tito José Bonagamba;</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="0" t="inlineStr">
         <is>
           <t>139166</t>
@@ -476,8 +1021,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>Tatiana Monaretto;</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="0" t="inlineStr">
         <is>
           <t>139167</t>
@@ -493,8 +1043,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>Patrick Giraudeau;</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="0" t="inlineStr">
         <is>
           <t>139168</t>
@@ -510,8 +1065,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>Andre Simpson;</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="0" t="inlineStr">
         <is>
           <t>139169</t>
@@ -527,8 +1087,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>Zeev Wiesman;</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="0" t="inlineStr">
         <is>
           <t>139170</t>
@@ -544,8 +1109,18 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>Flavio Vinicius Crizostomo  Kock;</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>Tiago Venâncio;</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="0" t="inlineStr">
         <is>
           <t>139172</t>
@@ -561,8 +1136,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>Juan Miguel López del Amo;</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="0" t="inlineStr">
         <is>
           <t>139173</t>
@@ -578,8 +1158,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>Jeffrey Reimer;</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="0" t="inlineStr">
         <is>
           <t>139174</t>
@@ -595,8 +1180,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>Daniel Huster;</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="0" t="inlineStr">
         <is>
           <t>139175</t>
@@ -612,8 +1202,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>Pau Nolis;</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="0" t="inlineStr">
         <is>
           <t>139176</t>
@@ -629,8 +1224,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>Josep Saurí;</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="0" t="inlineStr">
         <is>
           <t>139177</t>
@@ -646,8 +1246,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>Gareth Morris;</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="0" t="inlineStr">
         <is>
           <t>139178</t>
@@ -663,8 +1268,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>Antonio Gilberto Ferreira;</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="0" t="inlineStr">
         <is>
           <t>139180</t>
@@ -680,8 +1290,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>Scott Prosser;</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="0" t="inlineStr">
         <is>
           <t>139181</t>
@@ -697,8 +1312,23 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t> Jeremy Good;</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>Eugeny Kryukov;</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>Dr. Stephen Burgess;</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="0" t="inlineStr">
         <is>
           <t>139183</t>
@@ -714,8 +1344,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>Giselle de Araujo Lima e Souza;</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="0" t="inlineStr">
         <is>
           <t>139184</t>
@@ -731,8 +1366,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>Ariel Sarotti;</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="0" t="inlineStr">
         <is>
           <t>139185</t>
@@ -748,8 +1388,18 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>Sophia Hayes;</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>He Sun;</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="0" t="inlineStr">
         <is>
           <t>139186</t>
@@ -765,8 +1415,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>Jair Freitas;</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="0" t="inlineStr">
         <is>
           <t>139187</t>
@@ -782,8 +1437,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>Toshikazu Miyoshi;</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="0" t="inlineStr">
         <is>
           <t>139188</t>
@@ -799,8 +1459,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>Marek Pruski;</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="0" t="inlineStr">
         <is>
           <t>139190</t>
@@ -816,8 +1481,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>Yushan Wei;</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="0" t="inlineStr">
         <is>
           <t>139192</t>
@@ -833,8 +1503,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>Juan Araneda;</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="0" t="inlineStr">
         <is>
           <t>139193</t>
@@ -850,8 +1525,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>Clemens Anklin;</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="0" t="inlineStr">
         <is>
           <t>139194</t>
@@ -867,8 +1547,23 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>Søren Balling Engelsen;</t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>Bekzod  Khakimov ;</t>
+        </is>
+      </c>
+      <c r="F48" s="0" t="inlineStr">
+        <is>
+          <t>Viola  Aru;</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="0" t="inlineStr">
         <is>
           <t>139195</t>
@@ -884,8 +1579,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>Felipe Simoes;</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="0" t="inlineStr">
         <is>
           <t>139189</t>
@@ -901,8 +1601,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>Marcel Lachenmann;</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="0" t="inlineStr">
         <is>
           <t>139191</t>
@@ -918,8 +1623,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>Hector Robert;</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="0" t="inlineStr">
         <is>
           <t>139179</t>
@@ -935,8 +1645,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>Marcus Vinícius Cangussu Cardoso;</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="0" t="inlineStr">
         <is>
           <t>139171</t>
@@ -952,8 +1667,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>Annick Moing;</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="0" t="inlineStr">
         <is>
           <t>137467</t>
@@ -969,8 +1689,33 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>Igor d'Anciães Almeida Silva;</t>
+        </is>
+      </c>
+      <c r="E54" s="0" t="inlineStr">
+        <is>
+          <t>Hellmut Eckert;</t>
+        </is>
+      </c>
+      <c r="F54" s="0" t="inlineStr">
+        <is>
+          <t>Ana Candida Martins Rodrigues;</t>
+        </is>
+      </c>
+      <c r="G54" s="0" t="inlineStr">
+        <is>
+          <t>Adraiana Nieto-Munoz;</t>
+        </is>
+      </c>
+      <c r="H54" s="0" t="inlineStr">
+        <is>
+          <t>Vinicius Zallocco;</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="0" t="inlineStr">
         <is>
           <t>139182</t>
@@ -986,8 +1731,13 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>Esteban Anoardo;</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="0" t="inlineStr">
         <is>
           <t>137461</t>
@@ -1003,8 +1753,88 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>Amy Jenne;</t>
+        </is>
+      </c>
+      <c r="E56" s="0" t="inlineStr">
+        <is>
+          <t>Sebastian Von Der Ecken;</t>
+        </is>
+      </c>
+      <c r="F56" s="0" t="inlineStr">
+        <is>
+          <t>Vincent Moxley-Paquette;</t>
+        </is>
+      </c>
+      <c r="G56" s="0" t="inlineStr">
+        <is>
+          <t>Ian Swyer;</t>
+        </is>
+      </c>
+      <c r="H56" s="0" t="inlineStr">
+        <is>
+          <t>Ronald Soong;</t>
+        </is>
+      </c>
+      <c r="I56" s="0" t="inlineStr">
+        <is>
+          <t>Monica Bastawrous;</t>
+        </is>
+      </c>
+      <c r="J56" s="0" t="inlineStr">
+        <is>
+          <t>Falko Busse;</t>
+        </is>
+      </c>
+      <c r="K56" s="0" t="inlineStr">
+        <is>
+          <t>Wolfgang Bermel;</t>
+        </is>
+      </c>
+      <c r="L56" s="0" t="inlineStr">
+        <is>
+          <t>Daniel Schmidig;</t>
+        </is>
+      </c>
+      <c r="M56" s="0" t="inlineStr">
+        <is>
+          <t>Till Kuehn;</t>
+        </is>
+      </c>
+      <c r="N56" s="0" t="inlineStr">
+        <is>
+          <t>Rainer Kuemmerle;</t>
+        </is>
+      </c>
+      <c r="O56" s="0" t="inlineStr">
+        <is>
+          <t>Danijela Al Adwan-Stojilkovic;</t>
+        </is>
+      </c>
+      <c r="P56" s="0" t="inlineStr">
+        <is>
+          <t>Stephan Graf;</t>
+        </is>
+      </c>
+      <c r="Q56" s="0" t="inlineStr">
+        <is>
+          <t>Thomas Frei;</t>
+        </is>
+      </c>
+      <c r="R56" s="0" t="inlineStr">
+        <is>
+          <t>Martine Monette;</t>
+        </is>
+      </c>
+      <c r="S56" s="0" t="inlineStr">
+        <is>
+          <t>Henry Stronks;</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="0" t="inlineStr">
         <is>
           <t>137462</t>
@@ -1020,8 +1850,73 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>Rajshree Ghosh Biswas;</t>
+        </is>
+      </c>
+      <c r="E57" s="0" t="inlineStr">
+        <is>
+          <t>Ronald Soong;</t>
+        </is>
+      </c>
+      <c r="F57" s="0" t="inlineStr">
+        <is>
+          <t>Paris Ning;</t>
+        </is>
+      </c>
+      <c r="G57" s="0" t="inlineStr">
+        <is>
+          <t>Daniel Lane;</t>
+        </is>
+      </c>
+      <c r="H57" s="0" t="inlineStr">
+        <is>
+          <t>Daniel Schmidig;</t>
+        </is>
+      </c>
+      <c r="I57" s="0" t="inlineStr">
+        <is>
+          <t>Peter de Castro;</t>
+        </is>
+      </c>
+      <c r="J57" s="0" t="inlineStr">
+        <is>
+          <t>Stephan Graf;</t>
+        </is>
+      </c>
+      <c r="K57" s="0" t="inlineStr">
+        <is>
+          <t>Sebastian Wegner;</t>
+        </is>
+      </c>
+      <c r="L57" s="0" t="inlineStr">
+        <is>
+          <t>Falko Busse;</t>
+        </is>
+      </c>
+      <c r="M57" s="0" t="inlineStr">
+        <is>
+          <t>Jochem Struppe;</t>
+        </is>
+      </c>
+      <c r="N57" s="0" t="inlineStr">
+        <is>
+          <t>Michael  Fey;</t>
+        </is>
+      </c>
+      <c r="O57" s="0" t="inlineStr">
+        <is>
+          <t>Myrna Simpson;</t>
+        </is>
+      </c>
+      <c r="P57" s="0" t="inlineStr">
+        <is>
+          <t>Andre Simpson;</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="0" t="inlineStr">
         <is>
           <t>137475</t>
@@ -1037,8 +1932,43 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>VANESSA BEZERRA DE OLIVEIRA LEITE;</t>
+        </is>
+      </c>
+      <c r="E58" s="0" t="inlineStr">
+        <is>
+          <t>Talita Stelling De Araujo;</t>
+        </is>
+      </c>
+      <c r="F58" s="0" t="inlineStr">
+        <is>
+          <t>Rafael Alves de Andrade;</t>
+        </is>
+      </c>
+      <c r="G58" s="0" t="inlineStr">
+        <is>
+          <t> ;</t>
+        </is>
+      </c>
+      <c r="H58" s="0" t="inlineStr">
+        <is>
+          <t>Fabio C. L. Almeida;</t>
+        </is>
+      </c>
+      <c r="I58" s="0" t="inlineStr">
+        <is>
+          <t>Marcius da Silva Almeida;</t>
+        </is>
+      </c>
+      <c r="J58" s="0" t="inlineStr">
+        <is>
+          <t>Claudia Jorge do Nascimento;</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="0" t="inlineStr">
         <is>
           <t>139532</t>
@@ -1054,8 +1984,13 @@
           <t>Poster Presentation</t>
         </is>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>Fabio Ceneviva  Lacerda Almeida;</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="0" t="inlineStr">
         <is>
           <t>139533</t>
@@ -1071,8 +2006,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>Clemens  Anklin;</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="0" t="inlineStr">
         <is>
           <t>139534</t>
@@ -1088,8 +2028,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>Julien Orts;</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="0" t="inlineStr">
         <is>
           <t>139531</t>
@@ -1105,8 +2050,13 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>Donald Bouchard;</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="0" t="inlineStr">
         <is>
           <t>137463</t>
@@ -1122,8 +2072,33 @@
           <t>Invited Lecturer</t>
         </is>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>Giselle de Araujo Lima e Souza;</t>
+        </is>
+      </c>
+      <c r="E63" s="0" t="inlineStr">
+        <is>
+          <t>Maria Enrica Di Pietro;</t>
+        </is>
+      </c>
+      <c r="F63" s="0" t="inlineStr">
+        <is>
+          <t>Giovanni Battista Appetecchi;</t>
+        </is>
+      </c>
+      <c r="G63" s="0" t="inlineStr">
+        <is>
+          <t>Patricia Fazzio Martinez;</t>
+        </is>
+      </c>
+      <c r="H63" s="0" t="inlineStr">
+        <is>
+          <t>Andrea Mele;</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="B64" s="0" t="inlineStr">
         <is>
           <t>COMPREHENDING THE TRANSPORT PROPERTIES OF PROTIC IONIC LIQUIDS USING NMR</t>

--- a/php/src/planilha.xlsx
+++ b/php/src/planilha.xlsx
@@ -79,7 +79,7 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:35">
       <c r="A2" s="0" t="inlineStr">
         <is>
           <t>137458</t>
@@ -105,8 +105,28 @@
           <t>Elson Santiago Alvarenga;</t>
         </is>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" s="0" t="inlineStr">
+        <is>
+          <t>Departamento de Química / Centro de Ciências Exatas e Tecnológicas / Universidade Federal de Viçosa - Campus Viçosa</t>
+        </is>
+      </c>
+      <c r="U2" s="0" t="inlineStr">
+        <is>
+          <t>Departamento de Química / Centro de Ciências Exatas e Tecnológicas / Universidade Federal de Viçosa - Campus Viçosa</t>
+        </is>
+      </c>
+      <c r="V2" s="0" t="inlineStr">
+        <is>
+          <t>Departamento de Química / Centro de Ciências Exatas e Tecnológicas / Universidade Federal de Viçosa - Campus Viçosa</t>
+        </is>
+      </c>
+      <c r="W2" s="0" t="inlineStr">
+        <is>
+          <t>Departamento de Química / Centro de Ciências Exatas e Tecnológicas / Universidade Federal de Viçosa - Campus Viçosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" s="0" t="inlineStr">
         <is>
           <t>137459</t>
@@ -127,8 +147,13 @@
           <t>Tiago   Bueno de Moraes;</t>
         </is>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" s="0" t="inlineStr">
+        <is>
+          <t>Departamento de Química  / Instituto de Ciências Exatas  / Universidade Federal de Minas Gerais</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
       <c r="A4" s="0" t="inlineStr">
         <is>
           <t>137460</t>
@@ -159,8 +184,23 @@
           <t>Tiago   Bueno de Moraes;</t>
         </is>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="0" t="inlineStr">
+        <is>
+          <t>Centre national de la recherche scientifique (CNRS)</t>
+        </is>
+      </c>
+      <c r="U4" s="0" t="inlineStr">
+        <is>
+          <t>Empresa Brasileira de Pesquisa Agropecuária</t>
+        </is>
+      </c>
+      <c r="V4" s="0" t="inlineStr">
+        <is>
+          <t>Departamento de Química  / Instituto de Ciências Exatas  / Universidade Federal de Minas Gerais</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
       <c r="A5" s="0" t="inlineStr">
         <is>
           <t>137464</t>
@@ -256,8 +296,88 @@
           <t>Andre Simpson;</t>
         </is>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" s="0" t="inlineStr">
+        <is>
+          <t>Department of Physical and Environmental Sciences / Environmental NMR Centre / University of Toronto</t>
+        </is>
+      </c>
+      <c r="U5" s="0" t="inlineStr">
+        <is>
+          <t>Environmental NMR Centre / University of Toronto</t>
+        </is>
+      </c>
+      <c r="V5" s="0" t="inlineStr">
+        <is>
+          <t>Synex Medical</t>
+        </is>
+      </c>
+      <c r="W5" s="0" t="inlineStr">
+        <is>
+          <t>Chemistry / Scarborough Campus / University of Toronto</t>
+        </is>
+      </c>
+      <c r="X5" s="0" t="inlineStr">
+        <is>
+          <t>Department of Physical and Environmental Science / Scarborough Campus / University of Toronto</t>
+        </is>
+      </c>
+      <c r="Y5" s="0" t="inlineStr">
+        <is>
+          <t>Chemistry / Environmental NMR Centre / University of Toronto</t>
+        </is>
+      </c>
+      <c r="Z5" s="0" t="inlineStr">
+        <is>
+          <t>Chemistry / Scarborough Campus / University of Toronto</t>
+        </is>
+      </c>
+      <c r="AA5" s="0" t="inlineStr">
+        <is>
+          <t>Environmental NMR Centre / University of Toronto</t>
+        </is>
+      </c>
+      <c r="AB5" s="0" t="inlineStr">
+        <is>
+          <t>Department of Physical and Environmental Science / Scarborough Campus / University of Toronto</t>
+        </is>
+      </c>
+      <c r="AC5" s="0" t="inlineStr">
+        <is>
+          <t>Environmental NMR Centre / University of Toronto</t>
+        </is>
+      </c>
+      <c r="AD5" s="0" t="inlineStr">
+        <is>
+          <t>Environmental Monitoring &amp; Reporting Branch / Ontario Ministry of the Environment</t>
+        </is>
+      </c>
+      <c r="AE5" s="0" t="inlineStr">
+        <is>
+          <t>Bruker</t>
+        </is>
+      </c>
+      <c r="AF5" s="0" t="inlineStr">
+        <is>
+          <t>Bruker</t>
+        </is>
+      </c>
+      <c r="AG5" s="0" t="inlineStr">
+        <is>
+          <t>Bruker</t>
+        </is>
+      </c>
+      <c r="AH5" s="0" t="inlineStr">
+        <is>
+          <t>Department of Physical and Environmental Sciences / Scarborough Campus / University of Toronto</t>
+        </is>
+      </c>
+      <c r="AI5" s="0" t="inlineStr">
+        <is>
+          <t>University of Toronto</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6" s="0" t="inlineStr">
         <is>
           <t>137465</t>
@@ -298,8 +418,33 @@
           <t>Daniel Cardoso;</t>
         </is>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" s="0" t="inlineStr">
+        <is>
+          <t>Instituto de Química de São Carlos  / Universidade de São Paulo</t>
+        </is>
+      </c>
+      <c r="U6" s="0" t="inlineStr">
+        <is>
+          <t>Instituto de Química de São Carlos  / Universidade de São Paulo</t>
+        </is>
+      </c>
+      <c r="V6" s="0" t="inlineStr">
+        <is>
+          <t>Instituto de Química de São Carlos/ Universidade de São Paulo</t>
+        </is>
+      </c>
+      <c r="W6" s="0" t="inlineStr">
+        <is>
+          <t>Empresa Brasileira de Pesquisa Agropecuária</t>
+        </is>
+      </c>
+      <c r="X6" s="0" t="inlineStr">
+        <is>
+          <t>Instituto de Química de São Carlos  / Universidade de São Paulo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" s="0" t="inlineStr">
         <is>
           <t>137466</t>
@@ -330,8 +475,23 @@
           <t>Gerlon de Almeida Ribeiro Oliveira;</t>
         </is>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="0" t="inlineStr">
+        <is>
+          <t>Institute of Chemistry/Federal University of Goiás</t>
+        </is>
+      </c>
+      <c r="U7" s="0" t="inlineStr">
+        <is>
+          <t>Institute of Chemistry/Federal University of Goiás</t>
+        </is>
+      </c>
+      <c r="V7" s="0" t="inlineStr">
+        <is>
+          <t>Institute of Chemistry/Federal University of Goiás</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" s="0" t="inlineStr">
         <is>
           <t>137468</t>
@@ -357,8 +517,18 @@
           <t>Rodrigo Verly;</t>
         </is>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal dos Vales do Jequitinhonha e Mucuri</t>
+        </is>
+      </c>
+      <c r="U8" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal dos Vales do Jequitinhonha e Mucuri</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
       <c r="A9" s="0" t="inlineStr">
         <is>
           <t>137469</t>
@@ -404,8 +574,38 @@
           <t>Andre Simpson;</t>
         </is>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" s="0" t="inlineStr">
+        <is>
+          <t>Chemistry / Scarborough Campus / University of Toronto</t>
+        </is>
+      </c>
+      <c r="U9" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal de São Carlos</t>
+        </is>
+      </c>
+      <c r="V9" s="0" t="inlineStr">
+        <is>
+          <t>Biophysical Chemistry / Max Planck Institute / Max Planck Institute for Biophysical Chemistry</t>
+        </is>
+      </c>
+      <c r="W9" s="0" t="inlineStr">
+        <is>
+          <t>Biophysical Chemistry / Max Planck Institute / Max Planck Institute for Biophysical Chemistry</t>
+        </is>
+      </c>
+      <c r="X9" s="0" t="inlineStr">
+        <is>
+          <t>Department of Physical and Environmental Science / Scarborough Campus / University of Toronto</t>
+        </is>
+      </c>
+      <c r="Y9" s="0" t="inlineStr">
+        <is>
+          <t>University of Toronto</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
       <c r="A10" s="0" t="inlineStr">
         <is>
           <t>137470</t>
@@ -436,8 +636,23 @@
           <t>Cláudio Francisco Tormena;</t>
         </is>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Estadual de Campinas</t>
+        </is>
+      </c>
+      <c r="U10" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Estadual de Campinas</t>
+        </is>
+      </c>
+      <c r="V10" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Estadual de Campinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
       <c r="A11" s="0" t="inlineStr">
         <is>
           <t>137471</t>
@@ -478,8 +693,33 @@
           <t>Fernando Fernandes Paiva;</t>
         </is>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="0" t="inlineStr">
+        <is>
+          <t>Universidade de São Paulo</t>
+        </is>
+      </c>
+      <c r="U11" s="0" t="inlineStr">
+        <is>
+          <t>Universidade de São Paulo</t>
+        </is>
+      </c>
+      <c r="V11" s="0" t="inlineStr">
+        <is>
+          <t>Universidade de São Paulo</t>
+        </is>
+      </c>
+      <c r="W11" s="0" t="inlineStr">
+        <is>
+          <t>Universidade de São Paulo</t>
+        </is>
+      </c>
+      <c r="X11" s="0" t="inlineStr">
+        <is>
+          <t>Instituto de Física de São Carlos</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" spans="1:35">
       <c r="A12" s="0" t="inlineStr">
         <is>
           <t>137472</t>
@@ -515,8 +755,28 @@
           <t>Gerlon de Almeida Ribeiro Oliveira;</t>
         </is>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal de Goiás</t>
+        </is>
+      </c>
+      <c r="U12" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal de Goiás</t>
+        </is>
+      </c>
+      <c r="V12" s="0" t="inlineStr">
+        <is>
+          <t>Institute of Chemistry/Federal University of Goiás</t>
+        </is>
+      </c>
+      <c r="W12" s="0" t="inlineStr">
+        <is>
+          <t>Instituto de Química / Universidade Federal de Goiás</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" spans="1:35">
       <c r="A13" s="0" t="inlineStr">
         <is>
           <t>137473</t>
@@ -547,8 +807,23 @@
           <t>Francisco Paulo dos Santos;</t>
         </is>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal do Rio Grande do Sul</t>
+        </is>
+      </c>
+      <c r="U13" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal de São Carlos</t>
+        </is>
+      </c>
+      <c r="V13" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal do Rio Grande do Sul</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
       <c r="A14" s="0" t="inlineStr">
         <is>
           <t>137474</t>
@@ -609,8 +884,53 @@
           <t>Andre Simpson;</t>
         </is>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" s="0" t="inlineStr">
+        <is>
+          <t>University of Toronto</t>
+        </is>
+      </c>
+      <c r="U14" s="0" t="inlineStr">
+        <is>
+          <t>Department of Physical and Environmental Science / Scarborough Campus / University of Toronto</t>
+        </is>
+      </c>
+      <c r="V14" s="0" t="inlineStr">
+        <is>
+          <t>Department of Physical and Environmental Science / Scarborough Campus / University of Toronto</t>
+        </is>
+      </c>
+      <c r="W14" s="0" t="inlineStr">
+        <is>
+          <t>Institute of Microstructure Technology / Karlsruhe Institute of Technology / Karlsruhe Institute of Technology</t>
+        </is>
+      </c>
+      <c r="X14" s="0" t="inlineStr">
+        <is>
+          <t>Institute of Microstructure Technology / Karlsruhe Institute of Technology / Karlsruhe Institute of Technology</t>
+        </is>
+      </c>
+      <c r="Y14" s="0" t="inlineStr">
+        <is>
+          <t>Institute of Microstructure Technology / Karlsruhe Institute of Technology / Karlsruhe Institute of Technology</t>
+        </is>
+      </c>
+      <c r="Z14" s="0" t="inlineStr">
+        <is>
+          <t>Institute of Microstructure Technology / Karlsruhe Institute of Technology / Karlsruhe Institute of Technology</t>
+        </is>
+      </c>
+      <c r="AA14" s="0" t="inlineStr">
+        <is>
+          <t>Institute of Microstructure Technology / Karlsruhe Institute of Technology / Karlsruhe Institute of Technology</t>
+        </is>
+      </c>
+      <c r="AB14" s="0" t="inlineStr">
+        <is>
+          <t>University of Toronto</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" spans="1:35">
       <c r="A15" s="0" t="inlineStr">
         <is>
           <t>137476</t>
@@ -666,8 +986,48 @@
           <t>Denize  C. Favaro;</t>
         </is>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Estadual de Campinas</t>
+        </is>
+      </c>
+      <c r="U15" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Estadual de Campinas</t>
+        </is>
+      </c>
+      <c r="V15" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal de Minas Gerais</t>
+        </is>
+      </c>
+      <c r="W15" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal de Minas Gerais</t>
+        </is>
+      </c>
+      <c r="X15" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Estadual de Campinas</t>
+        </is>
+      </c>
+      <c r="Y15" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Estadual de Campinas</t>
+        </is>
+      </c>
+      <c r="Z15" s="0" t="inlineStr">
+        <is>
+          <t>Department of Chemistry / McGill University / McGill University</t>
+        </is>
+      </c>
+      <c r="AA15" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Estadual de Campinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" spans="1:35">
       <c r="A16" s="0" t="inlineStr">
         <is>
           <t>137477</t>
@@ -693,8 +1053,18 @@
           <t>Cláudio Francisco Tormena;</t>
         </is>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Estadual de Campinas</t>
+        </is>
+      </c>
+      <c r="U16" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Estadual de Campinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" spans="1:35">
       <c r="A17" s="0" t="inlineStr">
         <is>
           <t>137478</t>
@@ -725,8 +1095,23 @@
           <t>Jose Rivera;</t>
         </is>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal de Ouro Preto</t>
+        </is>
+      </c>
+      <c r="U17" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal de Ouro Preto</t>
+        </is>
+      </c>
+      <c r="V17" s="0" t="inlineStr">
+        <is>
+          <t>Universidade de São Paulo</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" spans="1:35">
       <c r="A18" s="0" t="inlineStr">
         <is>
           <t>137479</t>
@@ -772,8 +1157,38 @@
           <t>Jochen  Junker;</t>
         </is>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" s="0" t="inlineStr">
+        <is>
+          <t>Instituto Militar de Engenharia</t>
+        </is>
+      </c>
+      <c r="U18" s="0" t="inlineStr">
+        <is>
+          <t>INCQS / Fundação Oswaldo Cruz</t>
+        </is>
+      </c>
+      <c r="V18" s="0" t="inlineStr">
+        <is>
+          <t>INCQS/Fiocruz</t>
+        </is>
+      </c>
+      <c r="W18" s="0" t="inlineStr">
+        <is>
+          <t>Instituto Militar de Engenharia</t>
+        </is>
+      </c>
+      <c r="X18" s="0" t="inlineStr">
+        <is>
+          <t>Instituto Militar de Engenharia</t>
+        </is>
+      </c>
+      <c r="Y18" s="0" t="inlineStr">
+        <is>
+          <t>CDTS / Presidência / Fundação Oswaldo Cruz</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
       <c r="A19" s="0" t="inlineStr">
         <is>
           <t>137480</t>
@@ -799,8 +1214,18 @@
           <t>Cláudio Francisco Tormena;</t>
         </is>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Estadual de Campinas</t>
+        </is>
+      </c>
+      <c r="U19" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Estadual de Campinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:35">
       <c r="A20" s="0" t="inlineStr">
         <is>
           <t>137486</t>
@@ -836,8 +1261,28 @@
           <t>Luciano Morais Lião;</t>
         </is>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20" s="0" t="inlineStr">
+        <is>
+          <t>Federal Institute Goiano</t>
+        </is>
+      </c>
+      <c r="U20" s="0" t="inlineStr">
+        <is>
+          <t>Institute of Chemistry, Federal University of Goias</t>
+        </is>
+      </c>
+      <c r="V20" s="0" t="inlineStr">
+        <is>
+          <t>Federal Institute of Goiás</t>
+        </is>
+      </c>
+      <c r="W20" s="0" t="inlineStr">
+        <is>
+          <t>Institute of Chemistry, Federal University of Goias</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" spans="1:35">
       <c r="A21" s="0" t="inlineStr">
         <is>
           <t>137487</t>
@@ -873,8 +1318,28 @@
           <t>Gabriela Roberta Ramos Fernandes;</t>
         </is>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal de Ouro Preto</t>
+        </is>
+      </c>
+      <c r="U21" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal de Ouro Preto</t>
+        </is>
+      </c>
+      <c r="V21" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal de Ouro Preto</t>
+        </is>
+      </c>
+      <c r="W21" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal de Ouro Preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" spans="1:35">
       <c r="A22" s="0" t="inlineStr">
         <is>
           <t>137555</t>
@@ -915,8 +1380,33 @@
           <t>Ana Paula Valente;</t>
         </is>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22" s="0" t="inlineStr">
+        <is>
+          <t>Instituto de Bioquímica Médica, Centro Nacional de Ressonância Magnética Nuclear Jiri Jonas, Universidade Federal do Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="U22" s="0" t="inlineStr">
+        <is>
+          <t>Departamento de Bioquímica, Instituto de Química, Universidade Federal do Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="V22" s="0" t="inlineStr">
+        <is>
+          <t>Departamento de Bioquímica, Instituto de Química, Universidade Federal do Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="W22" s="0" t="inlineStr">
+        <is>
+          <t>Departamento de Bioquímica, Instituto de Química, Universidade Federal do Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="X22" s="0" t="inlineStr">
+        <is>
+          <t>Instituto de Bioquímica Médica, Centro Nacional de Ressonância Magnética Nuclear Jiri Jonas, Universidade Federal do Rio de Janeiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" spans="1:35">
       <c r="A23" s="0" t="inlineStr">
         <is>
           <t>137556</t>
@@ -967,8 +1457,43 @@
           <t>Adriane Regina Todeschini;</t>
         </is>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal do Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="U23" s="0" t="inlineStr">
+        <is>
+          <t>Instituto de Bioquímica Médica, Centro Nacional de Ressonância Magnética Nuclear Jiri Jonas, Universidade Federal do Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="V23" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal do Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="W23" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal do Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="X23" s="0" t="inlineStr">
+        <is>
+          <t>Laboratório de Tecido Conjuntivo / Instituto de Bioquímica Médica / Universidade Federal de Juiz de Fora</t>
+        </is>
+      </c>
+      <c r="Y23" s="0" t="inlineStr">
+        <is>
+          <t>Departamento de Glicobiologia  / Bioquímica Médica / Universidade Federal do Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="Z23" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal do Rio de Janeiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" spans="1:35">
       <c r="A24" s="0" t="inlineStr">
         <is>
           <t>139165</t>
@@ -1004,8 +1529,28 @@
           <t>Tito José Bonagamba;</t>
         </is>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24" s="0" t="inlineStr">
+        <is>
+          <t>Department of Chemical and Biological Physics, Weizmann Institute of Science, Israel</t>
+        </is>
+      </c>
+      <c r="U24" s="0" t="inlineStr">
+        <is>
+          <t>Centre National de La Recherche Scientifique, France</t>
+        </is>
+      </c>
+      <c r="V24" s="0" t="inlineStr">
+        <is>
+          <t>Embrapa Instrumentation, Brazil</t>
+        </is>
+      </c>
+      <c r="W24" s="0" t="inlineStr">
+        <is>
+          <t>São Carlos Institute of Physics, University of São Paulo, Brazil</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" spans="1:35">
       <c r="A25" s="0" t="inlineStr">
         <is>
           <t>139166</t>
@@ -1026,8 +1571,13 @@
           <t>Tatiana Monaretto;</t>
         </is>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25" s="0" t="inlineStr">
+        <is>
+          <t>Centre national de la recherche scientifique (CNRS)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" spans="1:35">
       <c r="A26" s="0" t="inlineStr">
         <is>
           <t>139167</t>
@@ -1048,8 +1598,13 @@
           <t>Patrick Giraudeau;</t>
         </is>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26" s="0" t="inlineStr">
+        <is>
+          <t>CEISAM / Faculté des Sciences et Techniques / Université de Nantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
       <c r="A27" s="0" t="inlineStr">
         <is>
           <t>139168</t>
@@ -1070,8 +1625,13 @@
           <t>Andre Simpson;</t>
         </is>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27" s="0" t="inlineStr">
+        <is>
+          <t>University of Toronto</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" spans="1:35">
       <c r="A28" s="0" t="inlineStr">
         <is>
           <t>139169</t>
@@ -1092,8 +1652,13 @@
           <t>Zeev Wiesman;</t>
         </is>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28" s="0" t="inlineStr">
+        <is>
+          <t>LowField</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" spans="1:35">
       <c r="A29" s="0" t="inlineStr">
         <is>
           <t>139170</t>
@@ -1119,8 +1684,18 @@
           <t>Tiago Venâncio;</t>
         </is>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal de São Carlos</t>
+        </is>
+      </c>
+      <c r="U29" s="0" t="inlineStr">
+        <is>
+          <t>Departamento de Química / Universidade Federal de São Carlos</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" spans="1:35">
       <c r="A30" s="0" t="inlineStr">
         <is>
           <t>139172</t>
@@ -1141,8 +1716,13 @@
           <t>Juan Miguel López del Amo;</t>
         </is>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30" s="0" t="inlineStr">
+        <is>
+          <t>NMR  / CIC energigune / CIC energigune</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
       <c r="A31" s="0" t="inlineStr">
         <is>
           <t>139173</t>
@@ -1163,8 +1743,13 @@
           <t>Jeffrey Reimer;</t>
         </is>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31" s="0" t="inlineStr">
+        <is>
+          <t>Dept Chem and BioM Engr / University of California</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
       <c r="A32" s="0" t="inlineStr">
         <is>
           <t>139174</t>
@@ -1185,8 +1770,13 @@
           <t>Daniel Huster;</t>
         </is>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32" s="0" t="inlineStr">
+        <is>
+          <t>University of Leipzig</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
       <c r="A33" s="0" t="inlineStr">
         <is>
           <t>139175</t>
@@ -1207,8 +1797,13 @@
           <t>Pau Nolis;</t>
         </is>
       </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="T33" s="0" t="inlineStr">
+        <is>
+          <t>Universitat Autònoma de Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
       <c r="A34" s="0" t="inlineStr">
         <is>
           <t>139176</t>
@@ -1229,8 +1824,13 @@
           <t>Josep Saurí;</t>
         </is>
       </c>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="T34" s="0" t="inlineStr">
+        <is>
+          <t>NMR Research Scientist</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
       <c r="A35" s="0" t="inlineStr">
         <is>
           <t>139177</t>
@@ -1251,8 +1851,13 @@
           <t>Gareth Morris;</t>
         </is>
       </c>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="T35" s="0" t="inlineStr">
+        <is>
+          <t>The University of Manchester</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" spans="1:35">
       <c r="A36" s="0" t="inlineStr">
         <is>
           <t>139178</t>
@@ -1273,8 +1878,13 @@
           <t>Antonio Gilberto Ferreira;</t>
         </is>
       </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal de São Carlos</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" spans="1:35">
       <c r="A37" s="0" t="inlineStr">
         <is>
           <t>139180</t>
@@ -1295,8 +1905,13 @@
           <t>Scott Prosser;</t>
         </is>
       </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37" s="0" t="inlineStr">
+        <is>
+          <t>University of Toronto</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" spans="1:35">
       <c r="A38" s="0" t="inlineStr">
         <is>
           <t>139181</t>
@@ -1327,8 +1942,23 @@
           <t>Dr. Stephen Burgess;</t>
         </is>
       </c>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="T38" s="0" t="inlineStr">
+        <is>
+          <t>London, UK / Cryogenic Ltd</t>
+        </is>
+      </c>
+      <c r="U38" s="0" t="inlineStr">
+        <is>
+          <t>Cryogenic Ltd</t>
+        </is>
+      </c>
+      <c r="V38" s="0" t="inlineStr">
+        <is>
+          <t>Cryogenic Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" spans="1:35">
       <c r="A39" s="0" t="inlineStr">
         <is>
           <t>139183</t>
@@ -1349,8 +1979,13 @@
           <t>Giselle de Araujo Lima e Souza;</t>
         </is>
       </c>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39" s="0" t="inlineStr">
+        <is>
+          <t>Department of Chemistry, Materials and Chemical Engineering “Giulio Natta” / Politecnico di Milano</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" spans="1:35">
       <c r="A40" s="0" t="inlineStr">
         <is>
           <t>139184</t>
@@ -1371,8 +2006,13 @@
           <t>Ariel Sarotti;</t>
         </is>
       </c>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="T40" s="0" t="inlineStr">
+        <is>
+          <t>Chimica / Chimica / Universidad Nacional de Rosario</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" spans="1:35">
       <c r="A41" s="0" t="inlineStr">
         <is>
           <t>139185</t>
@@ -1398,8 +2038,18 @@
           <t>He Sun;</t>
         </is>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="T41" s="0" t="inlineStr">
+        <is>
+          <t>Chemistry / Arts &amp; Sciences / Washington University in St. Louis</t>
+        </is>
+      </c>
+      <c r="U41" s="0" t="inlineStr">
+        <is>
+          <t>Chemistry / Arts &amp; Sciences / Washington University in St. Louis</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" spans="1:35">
       <c r="A42" s="0" t="inlineStr">
         <is>
           <t>139186</t>
@@ -1420,8 +2070,13 @@
           <t>Jair Freitas;</t>
         </is>
       </c>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="T42" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal do Espírito Santo, Brazil</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" spans="1:35">
       <c r="A43" s="0" t="inlineStr">
         <is>
           <t>139187</t>
@@ -1442,8 +2097,13 @@
           <t>Toshikazu Miyoshi;</t>
         </is>
       </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43" s="0" t="inlineStr">
+        <is>
+          <t>The University of Akron</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" spans="1:35">
       <c r="A44" s="0" t="inlineStr">
         <is>
           <t>139188</t>
@@ -1464,8 +2124,13 @@
           <t>Marek Pruski;</t>
         </is>
       </c>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44" s="0" t="inlineStr">
+        <is>
+          <t>Iowa State University</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" spans="1:35">
       <c r="A45" s="0" t="inlineStr">
         <is>
           <t>139190</t>
@@ -1486,8 +2151,13 @@
           <t>Yushan Wei;</t>
         </is>
       </c>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45" s="0" t="inlineStr">
+        <is>
+          <t>Niumag</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" spans="1:35">
       <c r="A46" s="0" t="inlineStr">
         <is>
           <t>139192</t>
@@ -1508,8 +2178,13 @@
           <t>Juan Araneda;</t>
         </is>
       </c>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46" s="0" t="inlineStr">
+        <is>
+          <t>Nanalysis Corp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" spans="1:35">
       <c r="A47" s="0" t="inlineStr">
         <is>
           <t>139193</t>
@@ -1530,8 +2205,13 @@
           <t>Clemens Anklin;</t>
         </is>
       </c>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="T47" s="0" t="inlineStr">
+        <is>
+          <t>Bruker</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" spans="1:35">
       <c r="A48" s="0" t="inlineStr">
         <is>
           <t>139194</t>
@@ -1562,8 +2242,23 @@
           <t>Viola  Aru;</t>
         </is>
       </c>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="T48" s="0" t="inlineStr">
+        <is>
+          <t>University of Copenhagen</t>
+        </is>
+      </c>
+      <c r="U48" s="0" t="inlineStr">
+        <is>
+          <t>University of Copenhagen</t>
+        </is>
+      </c>
+      <c r="V48" s="0" t="inlineStr">
+        <is>
+          <t>University of Copenhagen</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" spans="1:35">
       <c r="A49" s="0" t="inlineStr">
         <is>
           <t>139195</t>
@@ -1584,8 +2279,13 @@
           <t>Felipe Simoes;</t>
         </is>
       </c>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="T49" s="0" t="inlineStr">
+        <is>
+          <t>Hélio para Ressonancia Magnética / Hélio para Ressonancia Magnética / Air Products do Brasil Ltda</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" spans="1:35">
       <c r="A50" s="0" t="inlineStr">
         <is>
           <t>139189</t>
@@ -1606,8 +2306,13 @@
           <t>Marcel Lachenmann;</t>
         </is>
       </c>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="T50" s="0" t="inlineStr">
+        <is>
+          <t>Oxford Instruments</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" spans="1:35">
       <c r="A51" s="0" t="inlineStr">
         <is>
           <t>139191</t>
@@ -1628,8 +2333,13 @@
           <t>Hector Robert;</t>
         </is>
       </c>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="T51" s="0" t="inlineStr">
+        <is>
+          <t>Magritek, Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" spans="1:35">
       <c r="A52" s="0" t="inlineStr">
         <is>
           <t>139179</t>
@@ -1650,8 +2360,13 @@
           <t>Marcus Vinícius Cangussu Cardoso;</t>
         </is>
       </c>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="T52" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal de Ouro Preto</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" spans="1:35">
       <c r="A53" s="0" t="inlineStr">
         <is>
           <t>139171</t>
@@ -1672,8 +2387,13 @@
           <t>Annick Moing;</t>
         </is>
       </c>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="T53" s="0" t="inlineStr">
+        <is>
+          <t>INRAE Bordeaux, France</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" spans="1:35">
       <c r="A54" s="0" t="inlineStr">
         <is>
           <t>137467</t>
@@ -1714,8 +2434,33 @@
           <t>Vinicius Zallocco;</t>
         </is>
       </c>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="T54" s="0" t="inlineStr">
+        <is>
+          <t>Universidade de São Paulo</t>
+        </is>
+      </c>
+      <c r="U54" s="0" t="inlineStr">
+        <is>
+          <t>Universidade de São Paulo</t>
+        </is>
+      </c>
+      <c r="V54" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal de São Carlos</t>
+        </is>
+      </c>
+      <c r="W54" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal de São Carlos</t>
+        </is>
+      </c>
+      <c r="X54" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal de São Carlos</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" spans="1:35">
       <c r="A55" s="0" t="inlineStr">
         <is>
           <t>139182</t>
@@ -1736,8 +2481,13 @@
           <t>Esteban Anoardo;</t>
         </is>
       </c>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="T55" s="0" t="inlineStr">
+        <is>
+          <t>Laboratorio de Relaxometría y Técnicas Especiales (LaRTE). / Instituto de Física Enrique Gaviola, CONICET. Córdoba, Argentina. / FaMAF - Universidad Nacional de Córdoba. Córdoba, Argentina.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" spans="1:35">
       <c r="A56" s="0" t="inlineStr">
         <is>
           <t>137461</t>
@@ -1833,8 +2583,88 @@
           <t>Henry Stronks;</t>
         </is>
       </c>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="T56" s="0" t="inlineStr">
+        <is>
+          <t>Chemistry / Scarborough Campus / University of Toronto</t>
+        </is>
+      </c>
+      <c r="U56" s="0" t="inlineStr">
+        <is>
+          <t>University of Toronto</t>
+        </is>
+      </c>
+      <c r="V56" s="0" t="inlineStr">
+        <is>
+          <t>Department of Physical and Environmental Science / Scarborough Campus / University of Toronto</t>
+        </is>
+      </c>
+      <c r="W56" s="0" t="inlineStr">
+        <is>
+          <t>University of Toronto</t>
+        </is>
+      </c>
+      <c r="X56" s="0" t="inlineStr">
+        <is>
+          <t>Department of Physical and Environmental Science / Scarborough Campus / University of Toronto</t>
+        </is>
+      </c>
+      <c r="Y56" s="0" t="inlineStr">
+        <is>
+          <t>University of Toronto</t>
+        </is>
+      </c>
+      <c r="Z56" s="0" t="inlineStr">
+        <is>
+          <t>Bruker</t>
+        </is>
+      </c>
+      <c r="AA56" s="0" t="inlineStr">
+        <is>
+          <t>Biospin GmbH / BRUKER</t>
+        </is>
+      </c>
+      <c r="AB56" s="0" t="inlineStr">
+        <is>
+          <t>Biospin AG / BRUKER</t>
+        </is>
+      </c>
+      <c r="AC56" s="0" t="inlineStr">
+        <is>
+          <t>Biospin AG / BRUKER</t>
+        </is>
+      </c>
+      <c r="AD56" s="0" t="inlineStr">
+        <is>
+          <t>Biospin AG / BRUKER</t>
+        </is>
+      </c>
+      <c r="AE56" s="0" t="inlineStr">
+        <is>
+          <t>Biospin AG / BRUKER</t>
+        </is>
+      </c>
+      <c r="AF56" s="0" t="inlineStr">
+        <is>
+          <t>Biospin AG / BRUKER</t>
+        </is>
+      </c>
+      <c r="AG56" s="0" t="inlineStr">
+        <is>
+          <t>Biospin AG / BRUKER</t>
+        </is>
+      </c>
+      <c r="AH56" s="0" t="inlineStr">
+        <is>
+          <t>Canada Ltd / BRUKER</t>
+        </is>
+      </c>
+      <c r="AI56" s="0" t="inlineStr">
+        <is>
+          <t>Canada Ltd / BRUKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" spans="1:35">
       <c r="A57" s="0" t="inlineStr">
         <is>
           <t>137462</t>
@@ -1915,8 +2745,73 @@
           <t>Andre Simpson;</t>
         </is>
       </c>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="T57" s="0" t="inlineStr">
+        <is>
+          <t>Department of Physical and Environmental Science / Scarborough Campus / University of Toronto</t>
+        </is>
+      </c>
+      <c r="U57" s="0" t="inlineStr">
+        <is>
+          <t>Department of Physical and Environmental Science / Scarborough Campus / University of Toronto</t>
+        </is>
+      </c>
+      <c r="V57" s="0" t="inlineStr">
+        <is>
+          <t>Department of Physical and Environmental Science / Scarborough Campus / University of Toronto</t>
+        </is>
+      </c>
+      <c r="W57" s="0" t="inlineStr">
+        <is>
+          <t>Department of Physical and Environmental Science / Scarborough Campus / University of Toronto</t>
+        </is>
+      </c>
+      <c r="X57" s="0" t="inlineStr">
+        <is>
+          <t>Biospin AG / Bruker</t>
+        </is>
+      </c>
+      <c r="Y57" s="0" t="inlineStr">
+        <is>
+          <t>Biospin AG / Bruker</t>
+        </is>
+      </c>
+      <c r="Z57" s="0" t="inlineStr">
+        <is>
+          <t>Biospin AG / Bruker</t>
+        </is>
+      </c>
+      <c r="AA57" s="0" t="inlineStr">
+        <is>
+          <t>Bruker Biospin GmbH / Bruker</t>
+        </is>
+      </c>
+      <c r="AB57" s="0" t="inlineStr">
+        <is>
+          <t>Bruker Biospin GmbH / Bruker</t>
+        </is>
+      </c>
+      <c r="AC57" s="0" t="inlineStr">
+        <is>
+          <t>Bruker BioSpin</t>
+        </is>
+      </c>
+      <c r="AD57" s="0" t="inlineStr">
+        <is>
+          <t>Bruker</t>
+        </is>
+      </c>
+      <c r="AE57" s="0" t="inlineStr">
+        <is>
+          <t>Department of Physical and Environmental Science / Scarborough Campus / University of Toronto</t>
+        </is>
+      </c>
+      <c r="AF57" s="0" t="inlineStr">
+        <is>
+          <t>Department of Physical and Environmental Science / Scarborough Campus / University of Toronto</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" spans="1:35">
       <c r="A58" s="0" t="inlineStr">
         <is>
           <t>137475</t>
@@ -1967,8 +2862,38 @@
           <t>Claudia Jorge do Nascimento;</t>
         </is>
       </c>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="T58" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal do Estado do Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="U58" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal do Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="V58" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal do Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="X58" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal do Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="Y58" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal do Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="Z58" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal do Estado do Rio de Janeiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" spans="1:35">
       <c r="A59" s="0" t="inlineStr">
         <is>
           <t>139532</t>
@@ -1989,8 +2914,13 @@
           <t>Fabio Ceneviva  Lacerda Almeida;</t>
         </is>
       </c>
-    </row>
-    <row r="60" spans="1:19">
+      <c r="T59" s="0" t="inlineStr">
+        <is>
+          <t>Universidade Federal do Rio de Janeiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" spans="1:35">
       <c r="A60" s="0" t="inlineStr">
         <is>
           <t>139533</t>
@@ -2011,8 +2941,13 @@
           <t>Clemens  Anklin;</t>
         </is>
       </c>
-    </row>
-    <row r="61" spans="1:19">
+      <c r="T60" s="0" t="inlineStr">
+        <is>
+          <t>NMR Applicaitons / Bruker Biospin</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" spans="1:35">
       <c r="A61" s="0" t="inlineStr">
         <is>
           <t>139534</t>
@@ -2033,8 +2968,13 @@
           <t>Julien Orts;</t>
         </is>
       </c>
-    </row>
-    <row r="62" spans="1:19">
+      <c r="T61" s="0" t="inlineStr">
+        <is>
+          <t>Department of Pharmaceutical Sciences / Faculty of Life Sciences / University of Vienna</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" spans="1:35">
       <c r="A62" s="0" t="inlineStr">
         <is>
           <t>139531</t>
@@ -2055,8 +2995,13 @@
           <t>Donald Bouchard;</t>
         </is>
       </c>
-    </row>
-    <row r="63" spans="1:19">
+      <c r="T62" s="0" t="inlineStr">
+        <is>
+          <t>Alegre Science Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" spans="1:35">
       <c r="A63" s="0" t="inlineStr">
         <is>
           <t>137463</t>
@@ -2097,8 +3042,33 @@
           <t>Andrea Mele;</t>
         </is>
       </c>
-    </row>
-    <row r="64" spans="1:19">
+      <c r="T63" s="0" t="inlineStr">
+        <is>
+          <t>Department of Chemistry, Materials and Chemical Engineering “Giulio Natta” / Politecnico di Milano</t>
+        </is>
+      </c>
+      <c r="U63" s="0" t="inlineStr">
+        <is>
+          <t>Department of Chemistry, Materials and Chemical Engineering “Giulio Natta” / Politecnico di Milano</t>
+        </is>
+      </c>
+      <c r="V63" s="0" t="inlineStr">
+        <is>
+          <t>Department for Sustainability (SSPT) / Italian National Agency for New Technologies, Energy and Sustainable Economic Development / ENEA</t>
+        </is>
+      </c>
+      <c r="W63" s="0" t="inlineStr">
+        <is>
+          <t>School of Chemical Engineering/ University of Campinas/ Campinas/ Brazil</t>
+        </is>
+      </c>
+      <c r="X63" s="0" t="inlineStr">
+        <is>
+          <t>Department of Chemistry, Materials and Chemical Engineering “Giulio Natta” / Politecnico di Milano</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" spans="1:35">
       <c r="B64" s="0" t="inlineStr">
         <is>
           <t>COMPREHENDING THE TRANSPORT PROPERTIES OF PROTIC IONIC LIQUIDS USING NMR</t>

--- a/php/src/planilha.xlsx
+++ b/php/src/planilha.xlsx
@@ -52,7 +52,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:34">
       <c r="A1" s="0" t="inlineStr">
         <is>
           <t>ID</t>
@@ -70,12 +70,157 @@
       </c>
       <c r="D1" s="0" t="inlineStr">
         <is>
-          <t>Author1</t>
+          <t>Author 1</t>
         </is>
       </c>
       <c r="E1" s="0" t="inlineStr">
         <is>
+          <t>Author 2</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>Author 3</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>Author 4</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>Author 5</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>Author 6</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>Author 7</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>Author 8</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>Author 9</t>
+        </is>
+      </c>
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>Author 10</t>
+        </is>
+      </c>
+      <c r="N1" s="0" t="inlineStr">
+        <is>
+          <t>Author 1</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
+          <t>Author 12</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
+          <t>Author 13</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
+          <t>Author 14</t>
+        </is>
+      </c>
+      <c r="R1" s="0" t="inlineStr">
+        <is>
+          <t>Author 15</t>
+        </is>
+      </c>
+      <c r="S1" s="0" t="inlineStr">
+        <is>
           <t>Institution 1</t>
+        </is>
+      </c>
+      <c r="T1" s="0" t="inlineStr">
+        <is>
+          <t>Institution 2</t>
+        </is>
+      </c>
+      <c r="U1" s="0" t="inlineStr">
+        <is>
+          <t>Institution 3</t>
+        </is>
+      </c>
+      <c r="V1" s="0" t="inlineStr">
+        <is>
+          <t>Institution 4</t>
+        </is>
+      </c>
+      <c r="W1" s="0" t="inlineStr">
+        <is>
+          <t>Institution 5</t>
+        </is>
+      </c>
+      <c r="X1" s="0" t="inlineStr">
+        <is>
+          <t>Institution 6</t>
+        </is>
+      </c>
+      <c r="Y1" s="0" t="inlineStr">
+        <is>
+          <t>Institution 7</t>
+        </is>
+      </c>
+      <c r="Z1" s="0" t="inlineStr">
+        <is>
+          <t>Institution 8</t>
+        </is>
+      </c>
+      <c r="AA1" s="0" t="inlineStr">
+        <is>
+          <t>Institution 9</t>
+        </is>
+      </c>
+      <c r="AB1" s="0" t="inlineStr">
+        <is>
+          <t>Institution 10</t>
+        </is>
+      </c>
+      <c r="AC1" s="0" t="inlineStr">
+        <is>
+          <t>Institution 11</t>
+        </is>
+      </c>
+      <c r="AD1" s="0" t="inlineStr">
+        <is>
+          <t>Institution 12</t>
+        </is>
+      </c>
+      <c r="AE1" s="0" t="inlineStr">
+        <is>
+          <t>Institution 13</t>
+        </is>
+      </c>
+      <c r="AF1" s="0" t="inlineStr">
+        <is>
+          <t>Institution 14</t>
+        </is>
+      </c>
+      <c r="AG1" s="0" t="inlineStr">
+        <is>
+          <t>Institution 15</t>
+        </is>
+      </c>
+      <c r="AH1" s="0" t="inlineStr">
+        <is>
+          <t>Institution 16</t>
         </is>
       </c>
     </row>
